--- a/data/trans_orig/P1426-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>15720</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8946</v>
+        <v>8904</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25281</v>
+        <v>25905</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02234587953691912</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01271663201454703</v>
+        <v>0.01265786450445269</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0359381819958448</v>
+        <v>0.03682512146092538</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -764,19 +764,19 @@
         <v>14043</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6916</v>
+        <v>7828</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23818</v>
+        <v>25625</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02014660533930328</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009921976592584984</v>
+        <v>0.01122953746100742</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03416920228579981</v>
+        <v>0.03676178273923022</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -785,19 +785,19 @@
         <v>29763</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20498</v>
+        <v>19927</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43527</v>
+        <v>42523</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02125128238980733</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01463596324047798</v>
+        <v>0.01422810305613252</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03107902482088467</v>
+        <v>0.03036235116445147</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>687749</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>678188</v>
+        <v>677564</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>694523</v>
+        <v>694565</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9776541204630809</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9640618180041544</v>
+        <v>0.9631748785390744</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9872833679854528</v>
+        <v>0.9873421354955472</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>638</v>
@@ -835,19 +835,19 @@
         <v>683007</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>673232</v>
+        <v>671425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>690134</v>
+        <v>689222</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9798533946606968</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9658307977142002</v>
+        <v>0.9632382172607697</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9900780234074151</v>
+        <v>0.9887704625389926</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1298</v>
@@ -856,19 +856,19 @@
         <v>1370756</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1356992</v>
+        <v>1357996</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1380021</v>
+        <v>1380592</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9787487176101927</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9689209751791152</v>
+        <v>0.9696376488355487</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.985364036759522</v>
+        <v>0.9857718969438678</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>13560</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7329</v>
+        <v>7400</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24785</v>
+        <v>23294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01332119506091483</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007199687303159456</v>
+        <v>0.007269174638053706</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02434848265172383</v>
+        <v>0.02288301772843052</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -981,19 +981,19 @@
         <v>17561</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9831</v>
+        <v>9993</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27489</v>
+        <v>29196</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01706607028859218</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009553950299860963</v>
+        <v>0.009712097702998503</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02671480451244827</v>
+        <v>0.02837361098578581</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -1002,19 +1002,19 @@
         <v>31121</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22317</v>
+        <v>21321</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46196</v>
+        <v>43662</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01520371900981726</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01090247404074031</v>
+        <v>0.01041615739281542</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02256853270380836</v>
+        <v>0.02133044719920546</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1004387</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>993162</v>
+        <v>994653</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1010618</v>
+        <v>1010547</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9866788049390852</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9756515173482762</v>
+        <v>0.9771169822715693</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9928003126968405</v>
+        <v>0.9927308253619462</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>922</v>
@@ -1052,19 +1052,19 @@
         <v>1011412</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1001484</v>
+        <v>999777</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1019142</v>
+        <v>1018980</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9829339297114078</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9732851954875515</v>
+        <v>0.9716263890142138</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9904460497001391</v>
+        <v>0.9902879022970014</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1846</v>
@@ -1073,19 +1073,19 @@
         <v>2015800</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2000725</v>
+        <v>2003259</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2024604</v>
+        <v>2025600</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9847962809901828</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9774314672961916</v>
+        <v>0.9786695528007946</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9890975259592597</v>
+        <v>0.9895838426071846</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>7274</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3059</v>
+        <v>3062</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16643</v>
+        <v>16211</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009601551245525938</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004037160853332342</v>
+        <v>0.004041187062256774</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02196752402576811</v>
+        <v>0.02139712597816112</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1198,19 +1198,19 @@
         <v>14047</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7374</v>
+        <v>7398</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24859</v>
+        <v>23798</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0180741417887262</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009488673275656584</v>
+        <v>0.009518950027849086</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03198658447712951</v>
+        <v>0.03062117195285434</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1219,19 +1219,19 @@
         <v>21321</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13117</v>
+        <v>12673</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33921</v>
+        <v>34235</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01389180967094462</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008546378920997404</v>
+        <v>0.00825695275690898</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02210111570757881</v>
+        <v>0.02230579725672376</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>750349</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>740980</v>
+        <v>741412</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754564</v>
+        <v>754561</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.990398448754474</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.978032475974232</v>
+        <v>0.9786028740218393</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9959628391466676</v>
+        <v>0.9959588129377432</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>693</v>
@@ -1269,19 +1269,19 @@
         <v>763127</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>752315</v>
+        <v>753376</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>769800</v>
+        <v>769776</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9819258582112738</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9680134155228705</v>
+        <v>0.9693788280471455</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9905113267243434</v>
+        <v>0.9904810499721508</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1376</v>
@@ -1290,19 +1290,19 @@
         <v>1513476</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1500876</v>
+        <v>1500562</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1521680</v>
+        <v>1522124</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9861081903290554</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9778988842924218</v>
+        <v>0.9776942027432763</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9914536210790028</v>
+        <v>0.9917430472430914</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>16222</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9038</v>
+        <v>9069</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25802</v>
+        <v>25854</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01711679897964042</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00953609814785677</v>
+        <v>0.009568908507738193</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.027224780942414</v>
+        <v>0.02728001834580415</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1415,19 +1415,19 @@
         <v>20215</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12883</v>
+        <v>12155</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31286</v>
+        <v>30937</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01921712806161572</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01224757563165422</v>
+        <v>0.01155498970695407</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02974193241335187</v>
+        <v>0.02941069544617563</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -1436,19 +1436,19 @@
         <v>36437</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26012</v>
+        <v>26370</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49861</v>
+        <v>51364</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01822166678530881</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01300858617125579</v>
+        <v>0.01318730249738052</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02493514833931092</v>
+        <v>0.02568648295991043</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>931517</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>921937</v>
+        <v>921885</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>938701</v>
+        <v>938670</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9828832010203595</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9727752190575859</v>
+        <v>0.9727199816541955</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9904639018521433</v>
+        <v>0.9904310914922617</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>983</v>
@@ -1486,19 +1486,19 @@
         <v>1031686</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1020615</v>
+        <v>1020964</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1039018</v>
+        <v>1039746</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9807828719383843</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.970258067586648</v>
+        <v>0.9705893045538243</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9877524243683458</v>
+        <v>0.988445010293046</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1878</v>
@@ -1507,19 +1507,19 @@
         <v>1963203</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1949779</v>
+        <v>1948276</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1973628</v>
+        <v>1973270</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9817783332146912</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9750648516606892</v>
+        <v>0.9743135170400903</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9869914138287447</v>
+        <v>0.9868126975026196</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>52777</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38646</v>
+        <v>38413</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>69628</v>
+        <v>67470</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01540120677617016</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01127767184236873</v>
+        <v>0.01120961007590254</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0203188953073588</v>
+        <v>0.01968892900750232</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -1632,19 +1632,19 @@
         <v>65865</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51951</v>
+        <v>51096</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>85101</v>
+        <v>83436</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01852691137210892</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01461306786802217</v>
+        <v>0.01437262497095914</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02393786466400844</v>
+        <v>0.02346933955258838</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -1653,19 +1653,19 @@
         <v>118642</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>96523</v>
+        <v>95364</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142637</v>
+        <v>141798</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01699278265991985</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01382473261360779</v>
+        <v>0.0136588499028152</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02042966418565298</v>
+        <v>0.02030944204941523</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3374002</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3357151</v>
+        <v>3359309</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3388133</v>
+        <v>3388366</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9845987932238298</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9796811046926411</v>
+        <v>0.9803110709924974</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9887223281576311</v>
+        <v>0.9887903899240974</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3236</v>
@@ -1703,19 +1703,19 @@
         <v>3489233</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3469997</v>
+        <v>3471662</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3503147</v>
+        <v>3504002</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9814730886278911</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9760621353359915</v>
+        <v>0.9765306604474115</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9853869321319778</v>
+        <v>0.9856273750290409</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6398</v>
@@ -1724,19 +1724,19 @@
         <v>6863235</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6839240</v>
+        <v>6840079</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6885354</v>
+        <v>6886513</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9830072173400801</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9795703358143472</v>
+        <v>0.9796905579505848</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9861752673863922</v>
+        <v>0.9863411500971849</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>10179</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5301</v>
+        <v>5560</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17857</v>
+        <v>18024</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01508476466196069</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007856370383329364</v>
+        <v>0.008239837302023786</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02646271072626107</v>
+        <v>0.02671076441308659</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -2089,19 +2089,19 @@
         <v>11350</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6052</v>
+        <v>5862</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19729</v>
+        <v>20341</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01686849573889781</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008994552084732113</v>
+        <v>0.008712578552345873</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02932250441610632</v>
+        <v>0.03023127418561145</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -2110,19 +2110,19 @@
         <v>21529</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13441</v>
+        <v>13423</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31489</v>
+        <v>31753</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01597533241217801</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009973937335576969</v>
+        <v>0.009960611174417567</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02336621558538665</v>
+        <v>0.02356206445650185</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>664621</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>656943</v>
+        <v>656776</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>669499</v>
+        <v>669240</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9849152353380393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9735372892737389</v>
+        <v>0.9732892355869134</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9921436296166707</v>
+        <v>0.9917601626979762</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>655</v>
@@ -2160,19 +2160,19 @@
         <v>661489</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>653110</v>
+        <v>652498</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>666787</v>
+        <v>666977</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9831315042611022</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9706774955838935</v>
+        <v>0.9697687258143884</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9910054479152679</v>
+        <v>0.991287421447654</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1296</v>
@@ -2181,19 +2181,19 @@
         <v>1326110</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1316150</v>
+        <v>1315886</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1334198</v>
+        <v>1334216</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.984024667587822</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9766337844146135</v>
+        <v>0.976437935543498</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9900260626644232</v>
+        <v>0.9900393888255824</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>10723</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5193</v>
+        <v>5768</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19444</v>
+        <v>20505</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01048811062150498</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005078964612287071</v>
+        <v>0.005641045357803035</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01901764272123946</v>
+        <v>0.02005508679684037</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -2306,19 +2306,19 @@
         <v>24641</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16410</v>
+        <v>15938</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37628</v>
+        <v>36050</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02362738010122747</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01573515674261938</v>
+        <v>0.01528234403730333</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03608013759779062</v>
+        <v>0.03456626008369229</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -2327,19 +2327,19 @@
         <v>35365</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24853</v>
+        <v>25344</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49548</v>
+        <v>49987</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01712289640933248</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01203339616400279</v>
+        <v>0.01227103467490396</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02399037665446671</v>
+        <v>0.02420253086100163</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>1011708</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1002987</v>
+        <v>1001926</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1017238</v>
+        <v>1016663</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.989511889378495</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.98098235727876</v>
+        <v>0.9799449132031596</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9949210353877128</v>
+        <v>0.9943589546421969</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>955</v>
@@ -2377,19 +2377,19 @@
         <v>1018272</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1005285</v>
+        <v>1006863</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1026503</v>
+        <v>1026975</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9763726198987726</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9639198624022094</v>
+        <v>0.9654337399163078</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9842648432573807</v>
+        <v>0.9847176559626967</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1896</v>
@@ -2398,19 +2398,19 @@
         <v>2029979</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2015796</v>
+        <v>2015357</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2040491</v>
+        <v>2040000</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9828771035906675</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9760096233455333</v>
+        <v>0.9757974691389981</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9879666038359971</v>
+        <v>0.987728965325096</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>10078</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5217</v>
+        <v>5384</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16659</v>
+        <v>17473</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01326888624502128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006868759537489651</v>
+        <v>0.007088629916317942</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0219322401987265</v>
+        <v>0.02300493722661649</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -2523,19 +2523,19 @@
         <v>15424</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8815</v>
+        <v>8053</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24995</v>
+        <v>24734</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01964794214215774</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01122945293049133</v>
+        <v>0.01025887195119316</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03184019099982555</v>
+        <v>0.03150845222248497</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -2544,19 +2544,19 @@
         <v>25502</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16618</v>
+        <v>16172</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37263</v>
+        <v>36740</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01651098635163184</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01075919502642145</v>
+        <v>0.01047029161216809</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02412555218685715</v>
+        <v>0.0237865488900475</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>749474</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>742893</v>
+        <v>742079</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754335</v>
+        <v>754168</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9867311137549787</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9780677598012735</v>
+        <v>0.9769950627733833</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9931312404625102</v>
+        <v>0.992911370083682</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>722</v>
@@ -2594,19 +2594,19 @@
         <v>769587</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>760016</v>
+        <v>760277</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>776196</v>
+        <v>776958</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9803520578578423</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9681598090001747</v>
+        <v>0.9684915477775153</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9887705470695087</v>
+        <v>0.9897411280488071</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1407</v>
@@ -2615,19 +2615,19 @@
         <v>1519061</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1507300</v>
+        <v>1507823</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1527945</v>
+        <v>1528391</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9834890136483682</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9758744478131427</v>
+        <v>0.9762134511099537</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9892408049735786</v>
+        <v>0.9895297083878319</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>18056</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10798</v>
+        <v>10805</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29413</v>
+        <v>27882</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01925854539977538</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01151701806315451</v>
+        <v>0.01152465403090252</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03137164328172594</v>
+        <v>0.02973885069381893</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -2740,19 +2740,19 @@
         <v>20751</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12509</v>
+        <v>12464</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33275</v>
+        <v>32366</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01988065944102511</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01198399461479368</v>
+        <v>0.01194137931474853</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03187900690050166</v>
+        <v>0.03100878675221386</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -2761,19 +2761,19 @@
         <v>38807</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27017</v>
+        <v>27583</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54181</v>
+        <v>53535</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0195862769397883</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01363549199725947</v>
+        <v>0.01392122783522312</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02734553527842269</v>
+        <v>0.02701942146637666</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>919511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>908154</v>
+        <v>909685</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>926769</v>
+        <v>926762</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9807414546002247</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9686283567182746</v>
+        <v>0.9702611493061812</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9884829819368456</v>
+        <v>0.9884753459690976</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>941</v>
@@ -2811,19 +2811,19 @@
         <v>1023028</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1010504</v>
+        <v>1011413</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1031270</v>
+        <v>1031315</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9801193405589749</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9681209930994984</v>
+        <v>0.9689912132477861</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9880160053852064</v>
+        <v>0.9880586206852514</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1855</v>
@@ -2832,19 +2832,19 @@
         <v>1942539</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1927165</v>
+        <v>1927811</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1954329</v>
+        <v>1953763</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9804137230602117</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9726544647215773</v>
+        <v>0.9729805785336236</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9863645080027413</v>
+        <v>0.9860787721647771</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>49037</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37179</v>
+        <v>38022</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63587</v>
+        <v>65981</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01444669933309404</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01095322904463467</v>
+        <v>0.01120163088602562</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01873331918467006</v>
+        <v>0.01943862124025562</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -2957,19 +2957,19 @@
         <v>72166</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58453</v>
+        <v>56879</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93033</v>
+        <v>92349</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02035973878203713</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01649087558858238</v>
+        <v>0.0160469377708171</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02624685951449256</v>
+        <v>0.02605388389876472</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -2978,19 +2978,19 @@
         <v>121203</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101513</v>
+        <v>98863</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>146573</v>
+        <v>143245</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01746721264200131</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01462957226251833</v>
+        <v>0.01424773078084309</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02112335616540547</v>
+        <v>0.02064375174792035</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3345313</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3330763</v>
+        <v>3328369</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3357171</v>
+        <v>3356328</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9855533006669059</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9812666808153301</v>
+        <v>0.9805613787597445</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9890467709553653</v>
+        <v>0.9887983691139745</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3273</v>
@@ -3028,19 +3028,19 @@
         <v>3472376</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3451509</v>
+        <v>3452193</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3486089</v>
+        <v>3487663</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9796402612179629</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9737531404855079</v>
+        <v>0.973946116101235</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9835091244114177</v>
+        <v>0.9839530622291828</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6454</v>
@@ -3049,19 +3049,19 @@
         <v>6817689</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6792319</v>
+        <v>6795647</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6837379</v>
+        <v>6840029</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9825327873579986</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9788766438345945</v>
+        <v>0.9793562482520796</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9853704277374816</v>
+        <v>0.9857522692191569</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>42675</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33059</v>
+        <v>33337</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53493</v>
+        <v>52290</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06178396396051361</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04786192268677941</v>
+        <v>0.04826486427935506</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07744634884672814</v>
+        <v>0.07570520011156241</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>104</v>
@@ -3414,19 +3414,19 @@
         <v>44486</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36110</v>
+        <v>35887</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53845</v>
+        <v>53694</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06076402398742853</v>
+        <v>0.06076402398742851</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04932328372048466</v>
+        <v>0.04901904377139448</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07354783737629154</v>
+        <v>0.0733415993580913</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -3435,19 +3435,19 @@
         <v>87161</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>74667</v>
+        <v>74658</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>101576</v>
+        <v>102115</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06125915635887605</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05247804611126666</v>
+        <v>0.05247199133394899</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07139059868728127</v>
+        <v>0.071769835904354</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>648035</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>637217</v>
+        <v>638420</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>657651</v>
+        <v>657373</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9382160360394864</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9225536511532721</v>
+        <v>0.9242947998884375</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9521380773132206</v>
+        <v>0.9517351357206449</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1133</v>
@@ -3485,19 +3485,19 @@
         <v>687621</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>678262</v>
+        <v>678413</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>695997</v>
+        <v>696220</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9392359760125717</v>
+        <v>0.9392359760125716</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9264521626237084</v>
+        <v>0.9266584006419087</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.950676716279515</v>
+        <v>0.9509809562286052</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1789</v>
@@ -3506,19 +3506,19 @@
         <v>1335655</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1321240</v>
+        <v>1320701</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1348149</v>
+        <v>1348158</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9387408436411239</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9286094013127189</v>
+        <v>0.9282301640956461</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9475219538887333</v>
+        <v>0.947528008666051</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>50457</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39215</v>
+        <v>40359</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63498</v>
+        <v>63358</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04810367629835831</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0373860831246523</v>
+        <v>0.03847729532903975</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.060536495192732</v>
+        <v>0.06040352433097527</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -3631,19 +3631,19 @@
         <v>48730</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38201</v>
+        <v>38606</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60086</v>
+        <v>60338</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04556273610750162</v>
+        <v>0.04556273610750161</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03571807769729445</v>
+        <v>0.03609651080880384</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05618069962746843</v>
+        <v>0.05641672998936113</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>167</v>
@@ -3652,19 +3652,19 @@
         <v>99187</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84547</v>
+        <v>83973</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117235</v>
+        <v>115129</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04682085632359161</v>
+        <v>0.0468208563235916</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03991031032599272</v>
+        <v>0.03963945571220224</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.055340822225607</v>
+        <v>0.05434660002073818</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>998460</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>985419</v>
+        <v>985559</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1009702</v>
+        <v>1008558</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9518963237016418</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9394635048072677</v>
+        <v>0.9395964756690248</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9626139168753476</v>
+        <v>0.9615227046709602</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1422</v>
@@ -3702,19 +3702,19 @@
         <v>1020780</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1009424</v>
+        <v>1009172</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1031309</v>
+        <v>1030904</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9544372638924984</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9438193003725316</v>
+        <v>0.9435832700106389</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9642819223027053</v>
+        <v>0.9639034891911961</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2311</v>
@@ -3723,19 +3723,19 @@
         <v>2019240</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2001192</v>
+        <v>2003298</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2033880</v>
+        <v>2034454</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9531791436764083</v>
+        <v>0.9531791436764082</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9446591777743929</v>
+        <v>0.9456533999792617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9600896896740073</v>
+        <v>0.9603605442877978</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>28878</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19744</v>
+        <v>20088</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41596</v>
+        <v>41481</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03609558706809724</v>
+        <v>0.03609558706809725</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02467852785573251</v>
+        <v>0.02510880005821859</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05199235045783222</v>
+        <v>0.05184868354759199</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -3848,19 +3848,19 @@
         <v>31873</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24042</v>
+        <v>23543</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42216</v>
+        <v>41646</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.03927308816376925</v>
+        <v>0.03927308816376924</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0296244425886504</v>
+        <v>0.0290091154934539</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05201773586200598</v>
+        <v>0.05131523071424374</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -3869,19 +3869,19 @@
         <v>60751</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48838</v>
+        <v>46796</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78324</v>
+        <v>74887</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03769569423009862</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03030387504419694</v>
+        <v>0.02903678257322362</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04859948334637023</v>
+        <v>0.04646707265536779</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>771171</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>758453</v>
+        <v>758568</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>780305</v>
+        <v>779961</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9639044129319027</v>
+        <v>0.9639044129319028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9480076495421679</v>
+        <v>0.948151316452408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9753214721442675</v>
+        <v>0.9748911999417815</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>998</v>
@@ -3919,19 +3919,19 @@
         <v>779696</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>769353</v>
+        <v>769923</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>787527</v>
+        <v>788026</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9607269118362308</v>
+        <v>0.9607269118362307</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9479822641379942</v>
+        <v>0.9486847692857562</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9703755574113498</v>
+        <v>0.9709908845065461</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1640</v>
@@ -3940,19 +3940,19 @@
         <v>1550867</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1533294</v>
+        <v>1536731</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1562780</v>
+        <v>1564822</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9623043057699013</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9514005166536298</v>
+        <v>0.9535329273446325</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.969696124955803</v>
+        <v>0.9709632174267772</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>42100</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32054</v>
+        <v>31465</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54367</v>
+        <v>53833</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0425225448946269</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03237623035820453</v>
+        <v>0.03178066747408261</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05491248673614406</v>
+        <v>0.05437288608474221</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -4065,19 +4065,19 @@
         <v>49422</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39751</v>
+        <v>40093</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62132</v>
+        <v>62235</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04425315155748771</v>
+        <v>0.0442531515574877</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03559342253374376</v>
+        <v>0.03589982966120583</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0556342778716403</v>
+        <v>0.05572616102171627</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -4086,19 +4086,19 @@
         <v>91522</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75202</v>
+        <v>77126</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>107671</v>
+        <v>109718</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04343989845565351</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03569386363140459</v>
+        <v>0.03660730332679808</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0511049485883287</v>
+        <v>0.05207663370097135</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>947962</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>935695</v>
+        <v>936229</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>958008</v>
+        <v>958597</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9574774551053733</v>
+        <v>0.9574774551053732</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.945087513263856</v>
+        <v>0.945627113915258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9676237696417955</v>
+        <v>0.9682193325259174</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1478</v>
@@ -4136,19 +4136,19 @@
         <v>1067373</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1054663</v>
+        <v>1054560</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1077044</v>
+        <v>1076702</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9557468484425125</v>
+        <v>0.9557468484425122</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9443657221283597</v>
+        <v>0.9442738389782833</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.964406577466256</v>
+        <v>0.9641001703387942</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2429</v>
@@ -4157,19 +4157,19 @@
         <v>2015335</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1999186</v>
+        <v>1997139</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2031655</v>
+        <v>2029731</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9565601015443466</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9488950514116713</v>
+        <v>0.9479233662990284</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9643061363685952</v>
+        <v>0.9633926966732018</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>164110</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>144913</v>
+        <v>143782</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>189804</v>
+        <v>186969</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04649346519097879</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04105499326965997</v>
+        <v>0.04073453703125983</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05377296798158967</v>
+        <v>0.05296961479724657</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>324</v>
@@ -4282,19 +4282,19 @@
         <v>174510</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>155079</v>
+        <v>156612</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>195944</v>
+        <v>196403</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04678578250453326</v>
+        <v>0.04678578250453325</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04157642490159796</v>
+        <v>0.04198735241255639</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05253224971897013</v>
+        <v>0.05265527877680524</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>559</v>
@@ -4303,19 +4303,19 @@
         <v>338620</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>310467</v>
+        <v>308259</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>369811</v>
+        <v>370866</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04664365529637695</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04276575126121353</v>
+        <v>0.04246155495986137</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05094008397988608</v>
+        <v>0.05108548229795997</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3365628</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3339934</v>
+        <v>3342769</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3384825</v>
+        <v>3385956</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9535065348090211</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9462270320184102</v>
+        <v>0.9470303852027534</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.95894500673034</v>
+        <v>0.9592654629687402</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5031</v>
@@ -4353,19 +4353,19 @@
         <v>3555471</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3534037</v>
+        <v>3533578</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3574902</v>
+        <v>3573369</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9532142174954668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9474677502810299</v>
+        <v>0.9473447212231946</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.958423575098402</v>
+        <v>0.9580126475874436</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8169</v>
@@ -4374,19 +4374,19 @@
         <v>6921099</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6889908</v>
+        <v>6888853</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6949252</v>
+        <v>6951460</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9533563447036232</v>
+        <v>0.953356344703623</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9490599160201122</v>
+        <v>0.9489145177020401</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9572342487387864</v>
+        <v>0.9575384450401387</v>
       </c>
     </row>
     <row r="18">
